--- a/beosztas.xlsx
+++ b/beosztas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Szoft prog\01.10\mertekegyseg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Szoft.proj\mertegysva\mertekegyseg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4C49E-F0CB-49D0-AEA2-1FA5ED52A7AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A44525-F188-4B5E-8C34-E9842D0BD766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E75B09A1-4095-47B8-BD35-763CADCB70F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Bódis Benjámin</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>2025. jan.10</t>
+  </si>
+  <si>
+    <t>Excel, Kód</t>
+  </si>
+  <si>
+    <t>Kód</t>
+  </si>
+  <si>
+    <t>2025. jan.17</t>
   </si>
 </sst>
 </file>
@@ -93,10 +102,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A88953-967F-4F38-96C8-9DEC8C438C4F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -433,40 +442,67 @@
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
